--- a/privateupload/Certdatanew.xlsx
+++ b/privateupload/Certdatanew.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>first name</t>
   </si>
@@ -69,27 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">mobilefirst-stage.vodafone.com.csr  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">talend-test-rat.inv.vodafone.com.csr  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sss.prd.sandbox.vodafone.com.csr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">smcweb.vodafone.com.csr  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tssc-sitescope-admin-prod.vodafone.com.csr  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">proxy-rat-amelia-prod.vodafone.com.csr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">opsanalytics.vodafone.com.csr  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dublin.opsanalytics.vodafone.com.csr  </t>
   </si>
 </sst>
 </file>
@@ -476,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E14"/>
+      <selection activeCell="F14" sqref="A8:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05"/>
@@ -609,156 +588,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="C7" r:id="rId3"/>
     <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="D10" r:id="rId10"/>
-    <hyperlink ref="C11" r:id="rId11"/>
-    <hyperlink ref="D11" r:id="rId12"/>
-    <hyperlink ref="C12" r:id="rId13"/>
-    <hyperlink ref="D12" r:id="rId14"/>
-    <hyperlink ref="C13" r:id="rId15"/>
-    <hyperlink ref="D13" r:id="rId16"/>
-    <hyperlink ref="C14" r:id="rId17"/>
-    <hyperlink ref="D14" r:id="rId18"/>
-    <hyperlink ref="C3" r:id="rId19"/>
-    <hyperlink ref="D3" r:id="rId20"/>
-    <hyperlink ref="C4" r:id="rId21"/>
-    <hyperlink ref="D4" r:id="rId22"/>
-    <hyperlink ref="C5" r:id="rId23"/>
-    <hyperlink ref="D5" r:id="rId24"/>
-    <hyperlink ref="C6" r:id="rId25"/>
-    <hyperlink ref="D6" r:id="rId26"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="D5" r:id="rId10"/>
+    <hyperlink ref="C6" r:id="rId11"/>
+    <hyperlink ref="D6" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;7&amp;K000000C2 General</oddFooter>
   </headerFooter>
